--- a/primer avance proyecto bases/primer avance proyecto bases/diccionario de datos deezer.xlsx
+++ b/primer avance proyecto bases/primer avance proyecto bases/diccionario de datos deezer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana\Documents\bases\proyecto Josep\deezerfinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Bases-Proyecto\primer avance proyecto bases\primer avance proyecto bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E36E81-1A6C-4EB5-83ED-0AB367CB5FAC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911B62F6-EDBE-4AF5-9478-9819E31FF4E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="264">
   <si>
     <t>Entidad</t>
   </si>
@@ -809,13 +809,16 @@
   </si>
   <si>
     <t>Foto de perfil  del usuario</t>
+  </si>
+  <si>
+    <t>Diccionario de Variables Deezer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -825,13 +828,37 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -861,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -873,6 +900,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,7 +923,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1194,16 +1225,16 @@
   <dimension ref="A1:K161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
     <col min="4" max="4" width="101.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1218,23 +1249,30 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="23.25">
+      <c r="A3" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:11" ht="21">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="2"/>
@@ -3205,8 +3243,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;CDiccionario de variables Deezer
 </oddHeader>
